--- a/42Lisboa+42Porto-Personal-Study-Plan.xlsx
+++ b/42Lisboa+42Porto-Personal-Study-Plan.xlsx
@@ -679,20 +679,20 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="B5" activeCellId="0" sqref="B5"/>
+      <selection pane="bottomRight" activeCell="I40" activeCellId="0" sqref="I40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="11.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="17.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="11.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="11.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="14.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="22.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="30.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="19.38"/>
   </cols>
   <sheetData>
@@ -754,12 +754,12 @@
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
     </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="10" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" s="3"/>
       <c r="G5" s="3"/>
@@ -773,7 +773,7 @@
       </c>
       <c r="B6" s="12" t="n">
         <f aca="false">B4*B5</f>
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D6" s="3"/>
       <c r="F6" s="4"/>
@@ -805,7 +805,7 @@
       <c r="G8" s="4"/>
       <c r="H8" s="17" t="str">
         <f aca="false">ROUNDUP((G26-F11)/30,0)&amp;" months"</f>
-        <v>17 months</v>
+        <v>22 months</v>
       </c>
       <c r="I8" s="4"/>
       <c r="J8" s="18" t="s">
@@ -858,7 +858,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="26" t="s">
         <v>17</v>
       </c>
@@ -882,21 +882,25 @@
       </c>
       <c r="G11" s="32" t="n">
         <f aca="false">F11+E11*7/$B$5</f>
-        <v>45218.9666666667</v>
+        <v>45223.4583333333</v>
       </c>
       <c r="H11" s="33" t="n">
         <f aca="false">(G11-F11)/30</f>
-        <v>0.598888888888905</v>
-      </c>
-      <c r="I11" s="31"/>
-      <c r="J11" s="29"/>
+        <v>0.748611111111192</v>
+      </c>
+      <c r="I11" s="31" t="n">
+        <v>45230</v>
+      </c>
+      <c r="J11" s="29" t="n">
+        <v>65</v>
+      </c>
       <c r="K11" s="34" t="n">
         <f aca="false">IF(J11&gt;0,B3+J11)</f>
-        <v>0</v>
+        <v>45343</v>
       </c>
       <c r="L11" s="35"/>
     </row>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="36" t="s">
         <v>19</v>
       </c>
@@ -916,15 +920,15 @@
       </c>
       <c r="F12" s="39" t="n">
         <f aca="false">IF(I11&gt;0,I11,G11)+2</f>
-        <v>45220.9666666667</v>
+        <v>45232</v>
       </c>
       <c r="G12" s="40" t="n">
         <f aca="false">F12+E12*7/$B$5</f>
-        <v>45238.9333333333</v>
+        <v>45254.4583333333</v>
       </c>
       <c r="H12" s="33" t="n">
         <f aca="false">(G14-F12)/30</f>
-        <v>1.67333333333348</v>
+        <v>2.05833333333358</v>
       </c>
       <c r="I12" s="7"/>
       <c r="J12" s="3"/>
@@ -934,7 +938,7 @@
       </c>
       <c r="L12" s="35"/>
     </row>
-    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="36"/>
       <c r="B13" s="23" t="s">
         <v>21</v>
@@ -952,11 +956,11 @@
       </c>
       <c r="F13" s="39" t="n">
         <f aca="false">IF(I12&gt;0,I12,G12)+2</f>
-        <v>45240.9333333333</v>
+        <v>45256.4583333333</v>
       </c>
       <c r="G13" s="40" t="n">
         <f aca="false">F13+E13*7/$B$5</f>
-        <v>45258.9</v>
+        <v>45278.9166666667</v>
       </c>
       <c r="H13" s="33"/>
       <c r="I13" s="7"/>
@@ -967,7 +971,7 @@
       </c>
       <c r="L13" s="35"/>
     </row>
-    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="36"/>
       <c r="B14" s="27" t="s">
         <v>22</v>
@@ -985,11 +989,11 @@
       </c>
       <c r="F14" s="42" t="n">
         <f aca="false">IF(I13&gt;0,I13,G13)+2</f>
-        <v>45260.9</v>
+        <v>45280.9166666667</v>
       </c>
       <c r="G14" s="32" t="n">
         <f aca="false">F14+E14*7/$B$5</f>
-        <v>45271.1666666667</v>
+        <v>45293.75</v>
       </c>
       <c r="H14" s="33"/>
       <c r="I14" s="31"/>
@@ -1020,15 +1024,15 @@
       </c>
       <c r="F15" s="39" t="n">
         <f aca="false">IF(I14&gt;0,I14,G14)+2</f>
-        <v>45273.1666666667</v>
+        <v>45295.75</v>
       </c>
       <c r="G15" s="40" t="n">
         <f aca="false">F15+E15*7/$B$5</f>
-        <v>45288.5666666667</v>
+        <v>45315</v>
       </c>
       <c r="H15" s="33" t="n">
         <f aca="false">(G17-F15)/30</f>
-        <v>1.58777777777796</v>
+        <v>1.95138888888881</v>
       </c>
       <c r="I15" s="7"/>
       <c r="J15" s="3"/>
@@ -1056,11 +1060,11 @@
       </c>
       <c r="F16" s="39" t="n">
         <f aca="false">IF(I15&gt;0,I15,G15)+2</f>
-        <v>45290.5666666667</v>
+        <v>45317</v>
       </c>
       <c r="G16" s="40" t="n">
         <f aca="false">F16+E16*7/$B$5</f>
-        <v>45303.4</v>
+        <v>45333.0416666667</v>
       </c>
       <c r="H16" s="33"/>
       <c r="I16" s="22"/>
@@ -1089,11 +1093,11 @@
       </c>
       <c r="F17" s="42" t="n">
         <f aca="false">IF(I16&gt;0,I16,G16)+2</f>
-        <v>45305.4</v>
+        <v>45335.0416666667</v>
       </c>
       <c r="G17" s="32" t="n">
         <f aca="false">F17+E17*7/$B$5</f>
-        <v>45320.8</v>
+        <v>45354.2916666667</v>
       </c>
       <c r="H17" s="33"/>
       <c r="I17" s="31"/>
@@ -1124,15 +1128,15 @@
       </c>
       <c r="F18" s="39" t="n">
         <f aca="false">IF(I17&gt;0,I17,G17)+2</f>
-        <v>45322.8</v>
+        <v>45356.2916666667</v>
       </c>
       <c r="G18" s="40" t="n">
         <f aca="false">F18+E18*7/$B$5</f>
-        <v>45340.7666666667</v>
+        <v>45378.75</v>
       </c>
       <c r="H18" s="33" t="n">
         <f aca="false">(G19-F18)/30</f>
-        <v>2.46222222222229</v>
+        <v>3.06111111111119</v>
       </c>
       <c r="I18" s="7"/>
       <c r="J18" s="3"/>
@@ -1160,11 +1164,11 @@
       </c>
       <c r="F19" s="42" t="n">
         <f aca="false">IF(I18&gt;0,I18,G18)+2</f>
-        <v>45342.7666666667</v>
+        <v>45380.75</v>
       </c>
       <c r="G19" s="32" t="n">
         <f aca="false">F19+E19*7/$B$5</f>
-        <v>45396.6666666667</v>
+        <v>45448.125</v>
       </c>
       <c r="H19" s="33"/>
       <c r="I19" s="31"/>
@@ -1195,15 +1199,15 @@
       </c>
       <c r="F20" s="39" t="n">
         <f aca="false">IF(I19&gt;0,I19,G19)+2</f>
-        <v>45398.6666666667</v>
+        <v>45450.125</v>
       </c>
       <c r="G20" s="40" t="n">
         <f aca="false">F20+E20*7/$B$5</f>
-        <v>45411.5</v>
+        <v>45466.1666666667</v>
       </c>
       <c r="H20" s="33" t="n">
         <f aca="false">(G22-F20)/30</f>
-        <v>3.31600000000011</v>
+        <v>4.11166666666662</v>
       </c>
       <c r="I20" s="7"/>
       <c r="J20" s="3"/>
@@ -1231,11 +1235,11 @@
       </c>
       <c r="F21" s="39" t="n">
         <f aca="false">IF(I20&gt;0,I20,G20)+2</f>
-        <v>45413.5</v>
+        <v>45468.1666666667</v>
       </c>
       <c r="G21" s="40" t="n">
         <f aca="false">F21+E21*7/$B$5</f>
-        <v>45485.3666666667</v>
+        <v>45558</v>
       </c>
       <c r="H21" s="33"/>
       <c r="I21" s="7"/>
@@ -1264,11 +1268,11 @@
       </c>
       <c r="F22" s="42" t="n">
         <f aca="false">IF(I21&gt;0,I21,G21)+2</f>
-        <v>45487.3666666667</v>
+        <v>45560</v>
       </c>
       <c r="G22" s="32" t="n">
         <f aca="false">F22+E22*7/$B$5</f>
-        <v>45498.1466666667</v>
+        <v>45573.475</v>
       </c>
       <c r="H22" s="33"/>
       <c r="I22" s="31"/>
@@ -1299,15 +1303,15 @@
       </c>
       <c r="F23" s="39" t="n">
         <f aca="false">IF(I22&gt;0,I22,G22)+2</f>
-        <v>45500.1466666667</v>
+        <v>45575.475</v>
       </c>
       <c r="G23" s="40" t="n">
         <f aca="false">F23+E23*7/$B$5</f>
-        <v>45536.08</v>
+        <v>45620.3916666667</v>
       </c>
       <c r="H23" s="33" t="n">
         <f aca="false">(G25-F23)/30</f>
-        <v>4.83888888888905</v>
+        <v>6.01527777777762</v>
       </c>
       <c r="I23" s="7"/>
       <c r="J23" s="3"/>
@@ -1335,11 +1339,11 @@
       </c>
       <c r="F24" s="39" t="n">
         <f aca="false">IF(I23&gt;0,I23,G23)+2</f>
-        <v>45538.08</v>
+        <v>45622.3916666667</v>
       </c>
       <c r="G24" s="40" t="n">
         <f aca="false">F24+E24*7/$B$5</f>
-        <v>45591.98</v>
+        <v>45689.7666666667</v>
       </c>
       <c r="H24" s="33"/>
       <c r="I24" s="7"/>
@@ -1368,11 +1372,11 @@
       </c>
       <c r="F25" s="42" t="n">
         <f aca="false">IF(I24&gt;0,I24,G24)+2</f>
-        <v>45593.98</v>
+        <v>45691.7666666667</v>
       </c>
       <c r="G25" s="32" t="n">
         <f aca="false">F25+E25*7/$B$5</f>
-        <v>45645.3133333334</v>
+        <v>45755.9333333333</v>
       </c>
       <c r="H25" s="33"/>
       <c r="I25" s="31"/>
@@ -1403,15 +1407,15 @@
       </c>
       <c r="F26" s="42" t="n">
         <f aca="false">IF(I25&gt;0,I25,G25)+2</f>
-        <v>45647.3133333334</v>
+        <v>45757.9333333333</v>
       </c>
       <c r="G26" s="32" t="n">
         <f aca="false">F26+E26*7/$B$5</f>
-        <v>45710.1966666667</v>
+        <v>45836.5375</v>
       </c>
       <c r="H26" s="33" t="n">
         <f aca="false">(G26-F26)/30</f>
-        <v>2.09611111111105</v>
+        <v>2.62013888888881</v>
       </c>
       <c r="I26" s="31"/>
       <c r="J26" s="29"/>

--- a/42Lisboa+42Porto-Personal-Study-Plan.xlsx
+++ b/42Lisboa+42Porto-Personal-Study-Plan.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t xml:space="preserve">Kick-Off Date</t>
   </si>
@@ -97,6 +97,9 @@
     <t xml:space="preserve">push_swap</t>
   </si>
   <si>
+    <t xml:space="preserve">23/01/2023</t>
+  </si>
+  <si>
     <t xml:space="preserve">minitalk / pipex</t>
   </si>
   <si>
@@ -146,7 +149,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="7">
+  <numFmts count="8">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="d\-m"/>
     <numFmt numFmtId="166" formatCode="d\-mmm\-yyyy"/>
@@ -154,6 +157,7 @@
     <numFmt numFmtId="168" formatCode="General"/>
     <numFmt numFmtId="169" formatCode="0%"/>
     <numFmt numFmtId="170" formatCode="0"/>
+    <numFmt numFmtId="171" formatCode="d&quot;. &quot;mmm&quot;. &quot;yyyy"/>
   </numFmts>
   <fonts count="11">
     <font>
@@ -402,7 +406,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="50">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -567,11 +571,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="171" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="167" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="4" fillId="6" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="171" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -679,10 +691,10 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="I40" activeCellId="0" sqref="I40"/>
+      <selection pane="bottomRight" activeCell="E17" activeCellId="0" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.3"/>
@@ -803,9 +815,9 @@
       <c r="D8" s="3"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
-      <c r="H8" s="17" t="str">
+      <c r="H8" s="17" t="e">
         <f aca="false">ROUNDUP((G26-F11)/30,0)&amp;" months"</f>
-        <v>22 months</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I8" s="4"/>
       <c r="J8" s="18" t="s">
@@ -930,9 +942,9 @@
         <f aca="false">(G14-F12)/30</f>
         <v>2.05833333333358</v>
       </c>
-      <c r="I12" s="7"/>
+      <c r="I12" s="41"/>
       <c r="J12" s="3"/>
-      <c r="K12" s="41" t="str">
+      <c r="K12" s="42" t="str">
         <f aca="false">IF(J12&gt;0,K11+J12,"TBCalculated")</f>
         <v>TBCalculated</v>
       </c>
@@ -963,9 +975,9 @@
         <v>45278.9166666667</v>
       </c>
       <c r="H13" s="33"/>
-      <c r="I13" s="7"/>
+      <c r="I13" s="41"/>
       <c r="J13" s="3"/>
-      <c r="K13" s="41" t="str">
+      <c r="K13" s="42" t="str">
         <f aca="false">IF(J13&gt;0,K12+J13,"TBCalculated")</f>
         <v>TBCalculated</v>
       </c>
@@ -987,7 +999,7 @@
         <f aca="false">D14/$B$4</f>
         <v>7.33333333333333</v>
       </c>
-      <c r="F14" s="42" t="n">
+      <c r="F14" s="43" t="n">
         <f aca="false">IF(I13&gt;0,I13,G13)+2</f>
         <v>45280.9166666667</v>
       </c>
@@ -996,7 +1008,7 @@
         <v>45293.75</v>
       </c>
       <c r="H14" s="33"/>
-      <c r="I14" s="31"/>
+      <c r="I14" s="44"/>
       <c r="J14" s="29"/>
       <c r="K14" s="34" t="str">
         <f aca="false">IF(J14&gt;0,K13+J14,"TBCalculated")</f>
@@ -1004,7 +1016,7 @@
       </c>
       <c r="L14" s="35"/>
     </row>
-    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="36" t="s">
         <v>23</v>
       </c>
@@ -1030,22 +1042,24 @@
         <f aca="false">F15+E15*7/$B$5</f>
         <v>45315</v>
       </c>
-      <c r="H15" s="33" t="n">
+      <c r="H15" s="33" t="e">
         <f aca="false">(G17-F15)/30</f>
-        <v>1.95138888888881</v>
-      </c>
-      <c r="I15" s="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I15" s="41" t="s">
+        <v>25</v>
+      </c>
       <c r="J15" s="3"/>
-      <c r="K15" s="41" t="str">
+      <c r="K15" s="42" t="str">
         <f aca="false">IF(J15&gt;0,K14+J15,"TBCalculated")</f>
         <v>TBCalculated</v>
       </c>
       <c r="L15" s="35"/>
     </row>
-    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="36"/>
-      <c r="B16" s="43" t="s">
-        <v>25</v>
+      <c r="B16" s="45" t="s">
+        <v>26</v>
       </c>
       <c r="C16" s="37" t="n">
         <v>50</v>
@@ -1058,27 +1072,27 @@
         <f aca="false">D16/$B$4</f>
         <v>9.16666666666667</v>
       </c>
-      <c r="F16" s="39" t="n">
+      <c r="F16" s="39" t="e">
         <f aca="false">IF(I15&gt;0,I15,G15)+2</f>
-        <v>45317</v>
-      </c>
-      <c r="G16" s="40" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G16" s="40" t="e">
         <f aca="false">F16+E16*7/$B$5</f>
-        <v>45333.0416666667</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H16" s="33"/>
-      <c r="I16" s="22"/>
+      <c r="I16" s="41"/>
       <c r="J16" s="3"/>
-      <c r="K16" s="41" t="str">
+      <c r="K16" s="42" t="str">
         <f aca="false">IF(J16&gt;0,K15+J16,"TBCalculated")</f>
         <v>TBCalculated</v>
       </c>
       <c r="L16" s="35"/>
     </row>
-    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="36"/>
-      <c r="B17" s="44" t="s">
-        <v>26</v>
+      <c r="B17" s="46" t="s">
+        <v>27</v>
       </c>
       <c r="C17" s="28" t="n">
         <v>60</v>
@@ -1091,16 +1105,16 @@
         <f aca="false">D17/$B$4</f>
         <v>11</v>
       </c>
-      <c r="F17" s="42" t="n">
+      <c r="F17" s="43" t="e">
         <f aca="false">IF(I16&gt;0,I16,G16)+2</f>
-        <v>45335.0416666667</v>
-      </c>
-      <c r="G17" s="32" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G17" s="32" t="e">
         <f aca="false">F17+E17*7/$B$5</f>
-        <v>45354.2916666667</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H17" s="33"/>
-      <c r="I17" s="31"/>
+      <c r="I17" s="44"/>
       <c r="J17" s="29"/>
       <c r="K17" s="34" t="str">
         <f aca="false">IF(J17&gt;0,K16+J17,"TBCalculated")</f>
@@ -1108,12 +1122,12 @@
       </c>
       <c r="L17" s="35"/>
     </row>
-    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="36" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C18" s="37" t="n">
         <v>70</v>
@@ -1126,30 +1140,30 @@
         <f aca="false">D18/$B$4</f>
         <v>12.8333333333333</v>
       </c>
-      <c r="F18" s="39" t="n">
+      <c r="F18" s="39" t="e">
         <f aca="false">IF(I17&gt;0,I17,G17)+2</f>
-        <v>45356.2916666667</v>
-      </c>
-      <c r="G18" s="40" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G18" s="40" t="e">
         <f aca="false">F18+E18*7/$B$5</f>
-        <v>45378.75</v>
-      </c>
-      <c r="H18" s="33" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H18" s="33" t="e">
         <f aca="false">(G19-F18)/30</f>
-        <v>3.06111111111119</v>
-      </c>
-      <c r="I18" s="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I18" s="41"/>
       <c r="J18" s="3"/>
-      <c r="K18" s="41" t="str">
+      <c r="K18" s="42" t="str">
         <f aca="false">IF(J18&gt;0,K17+J18,"TBCalculated")</f>
         <v>TBCalculated</v>
       </c>
       <c r="L18" s="35"/>
     </row>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="36"/>
       <c r="B19" s="27" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C19" s="28" t="n">
         <v>210</v>
@@ -1162,16 +1176,16 @@
         <f aca="false">D19/$B$4</f>
         <v>38.5</v>
       </c>
-      <c r="F19" s="42" t="n">
+      <c r="F19" s="43" t="e">
         <f aca="false">IF(I18&gt;0,I18,G18)+2</f>
-        <v>45380.75</v>
-      </c>
-      <c r="G19" s="32" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G19" s="32" t="e">
         <f aca="false">F19+E19*7/$B$5</f>
-        <v>45448.125</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H19" s="33"/>
-      <c r="I19" s="31"/>
+      <c r="I19" s="44"/>
       <c r="J19" s="29"/>
       <c r="K19" s="34" t="str">
         <f aca="false">IF(J19&gt;0,K18+J19,"TBCalculated")</f>
@@ -1179,12 +1193,12 @@
       </c>
       <c r="L19" s="35"/>
     </row>
-    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="26" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C20" s="37" t="n">
         <v>50</v>
@@ -1197,30 +1211,30 @@
         <f aca="false">D20/$B$4</f>
         <v>9.16666666666667</v>
       </c>
-      <c r="F20" s="39" t="n">
+      <c r="F20" s="39" t="e">
         <f aca="false">IF(I19&gt;0,I19,G19)+2</f>
-        <v>45450.125</v>
-      </c>
-      <c r="G20" s="40" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G20" s="40" t="e">
         <f aca="false">F20+E20*7/$B$5</f>
-        <v>45466.1666666667</v>
-      </c>
-      <c r="H20" s="33" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H20" s="33" t="e">
         <f aca="false">(G22-F20)/30</f>
-        <v>4.11166666666662</v>
-      </c>
-      <c r="I20" s="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I20" s="41"/>
       <c r="J20" s="3"/>
-      <c r="K20" s="41" t="str">
+      <c r="K20" s="42" t="str">
         <f aca="false">IF(J20&gt;0,K19+J20,"TBCalculated")</f>
         <v>TBCalculated</v>
       </c>
       <c r="L20" s="35"/>
     </row>
-    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="26"/>
-      <c r="B21" s="45" t="s">
-        <v>32</v>
+      <c r="B21" s="47" t="s">
+        <v>33</v>
       </c>
       <c r="C21" s="37" t="n">
         <v>280</v>
@@ -1233,27 +1247,27 @@
         <f aca="false">D21/$B$4</f>
         <v>51.3333333333333</v>
       </c>
-      <c r="F21" s="39" t="n">
+      <c r="F21" s="39" t="e">
         <f aca="false">IF(I20&gt;0,I20,G20)+2</f>
-        <v>45468.1666666667</v>
-      </c>
-      <c r="G21" s="40" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G21" s="40" t="e">
         <f aca="false">F21+E21*7/$B$5</f>
-        <v>45558</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H21" s="33"/>
-      <c r="I21" s="7"/>
+      <c r="I21" s="41"/>
       <c r="J21" s="3"/>
-      <c r="K21" s="41" t="str">
+      <c r="K21" s="42" t="str">
         <f aca="false">IF(J21&gt;0,K20+J21,"TBCalculated")</f>
         <v>TBCalculated</v>
       </c>
       <c r="L21" s="35"/>
     </row>
-    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="26"/>
       <c r="B22" s="27" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C22" s="28" t="n">
         <v>42</v>
@@ -1266,16 +1280,16 @@
         <f aca="false">D22/$B$4</f>
         <v>7.7</v>
       </c>
-      <c r="F22" s="42" t="n">
+      <c r="F22" s="43" t="e">
         <f aca="false">IF(I21&gt;0,I21,G21)+2</f>
-        <v>45560</v>
-      </c>
-      <c r="G22" s="32" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G22" s="32" t="e">
         <f aca="false">F22+E22*7/$B$5</f>
-        <v>45573.475</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H22" s="33"/>
-      <c r="I22" s="31"/>
+      <c r="I22" s="44"/>
       <c r="J22" s="29"/>
       <c r="K22" s="34" t="str">
         <f aca="false">IF(J22&gt;0,K21+J22,"TBCalculated")</f>
@@ -1283,12 +1297,12 @@
       </c>
       <c r="L22" s="35"/>
     </row>
-    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C23" s="37" t="n">
         <v>140</v>
@@ -1301,30 +1315,30 @@
         <f aca="false">D23/$B$4</f>
         <v>25.6666666666667</v>
       </c>
-      <c r="F23" s="39" t="n">
+      <c r="F23" s="39" t="e">
         <f aca="false">IF(I22&gt;0,I22,G22)+2</f>
-        <v>45575.475</v>
-      </c>
-      <c r="G23" s="40" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G23" s="40" t="e">
         <f aca="false">F23+E23*7/$B$5</f>
-        <v>45620.3916666667</v>
-      </c>
-      <c r="H23" s="33" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H23" s="33" t="e">
         <f aca="false">(G25-F23)/30</f>
-        <v>6.01527777777762</v>
-      </c>
-      <c r="I23" s="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I23" s="41"/>
       <c r="J23" s="3"/>
-      <c r="K23" s="41" t="str">
+      <c r="K23" s="42" t="str">
         <f aca="false">IF(J23&gt;0,K22+J23,"TBCalculated")</f>
         <v>TBCalculated</v>
       </c>
       <c r="L23" s="35"/>
     </row>
-    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="26"/>
       <c r="B24" s="23" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C24" s="37" t="n">
         <v>210</v>
@@ -1337,27 +1351,27 @@
         <f aca="false">D24/$B$4</f>
         <v>38.5</v>
       </c>
-      <c r="F24" s="39" t="n">
+      <c r="F24" s="39" t="e">
         <f aca="false">IF(I23&gt;0,I23,G23)+2</f>
-        <v>45622.3916666667</v>
-      </c>
-      <c r="G24" s="40" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G24" s="40" t="e">
         <f aca="false">F24+E24*7/$B$5</f>
-        <v>45689.7666666667</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H24" s="33"/>
-      <c r="I24" s="7"/>
+      <c r="I24" s="41"/>
       <c r="J24" s="3"/>
-      <c r="K24" s="41" t="str">
+      <c r="K24" s="42" t="str">
         <f aca="false">IF(J24&gt;0,K23+J24,"TBCalculated")</f>
         <v>TBCalculated</v>
       </c>
       <c r="L24" s="35"/>
     </row>
-    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="26"/>
-      <c r="B25" s="46" t="s">
-        <v>37</v>
+      <c r="B25" s="48" t="s">
+        <v>38</v>
       </c>
       <c r="C25" s="28" t="n">
         <v>200</v>
@@ -1370,16 +1384,16 @@
         <f aca="false">D25/$B$4</f>
         <v>36.6666666666667</v>
       </c>
-      <c r="F25" s="42" t="n">
+      <c r="F25" s="43" t="e">
         <f aca="false">IF(I24&gt;0,I24,G24)+2</f>
-        <v>45691.7666666667</v>
-      </c>
-      <c r="G25" s="32" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G25" s="32" t="e">
         <f aca="false">F25+E25*7/$B$5</f>
-        <v>45755.9333333333</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H25" s="33"/>
-      <c r="I25" s="31"/>
+      <c r="I25" s="44"/>
       <c r="J25" s="29"/>
       <c r="K25" s="34" t="str">
         <f aca="false">IF(J25&gt;0,K24+J25,"TBCalculated")</f>
@@ -1387,12 +1401,12 @@
       </c>
       <c r="L25" s="3"/>
     </row>
-    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="26" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B26" s="27" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C26" s="28" t="n">
         <v>245</v>
@@ -1405,19 +1419,19 @@
         <f aca="false">D26/$B$4</f>
         <v>44.9166666666667</v>
       </c>
-      <c r="F26" s="42" t="n">
+      <c r="F26" s="43" t="e">
         <f aca="false">IF(I25&gt;0,I25,G25)+2</f>
-        <v>45757.9333333333</v>
-      </c>
-      <c r="G26" s="32" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G26" s="32" t="e">
         <f aca="false">F26+E26*7/$B$5</f>
-        <v>45836.5375</v>
-      </c>
-      <c r="H26" s="33" t="n">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H26" s="33" t="e">
         <f aca="false">(G26-F26)/30</f>
-        <v>2.62013888888881</v>
-      </c>
-      <c r="I26" s="31"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I26" s="44"/>
       <c r="J26" s="29"/>
       <c r="K26" s="34" t="str">
         <f aca="false">IF(J26&gt;0,K25+J26,"TBCalculated")</f>
@@ -1434,7 +1448,7 @@
       <c r="H27" s="3"/>
       <c r="I27" s="4"/>
       <c r="J27" s="3"/>
-      <c r="K27" s="47"/>
+      <c r="K27" s="49"/>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="16"/>
@@ -12266,8 +12280,8 @@
     <hyperlink ref="J8" r:id="rId1" display="42Evaluators"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
